--- a/6月提成汇总表/6月份提成表正式版.xlsx
+++ b/6月提成汇总表/6月份提成表正式版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   <si>
     <t>提成30%</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -758,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2168,14 +2172,14 @@
       <c r="B42" s="21"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14" t="s">
+      <c r="J42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
